--- a/Objects/PGS7-0-19_20250314-BurnFile/PGS7_FW_ChangeNote.xlsx
+++ b/Objects/PGS7-0-19_20250314-BurnFile/PGS7_FW_ChangeNote.xlsx
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
